--- a/總需求.xlsx
+++ b/總需求.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\py demo\py demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41CAC7F-5910-47D7-B12E-632A3DA0A55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1186E11-87B4-49F5-8016-0C068A3549C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2580" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5328" yWindow="3420" windowWidth="17280" windowHeight="6912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>進行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>要有互動式的窗格，讓指標移過去可以顯示最高最低開盤收盤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片使用指定期間(日期到日期)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照數量大小自動調整K線粗細</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使KD值沒有誤差，量還要取大一點(要取多少才不會有誤差??中央極限定理??信賴水準??)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,6 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -454,10 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -506,6 +520,21 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -514,9 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D79087-AA3C-40E3-B807-0F6F4C40F47A}">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/總需求.xlsx
+++ b/總需求.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\py demo\py demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1186E11-87B4-49F5-8016-0C068A3549C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E025DA-55F3-48A9-9951-4CCEDF7F3A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="3420" windowWidth="17280" windowHeight="6912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>進行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,6 +129,22 @@
   </si>
   <si>
     <t>使KD值沒有誤差，量還要取大一點(要取多少才不會有誤差??中央極限定理??信賴水準??)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把類股分類好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD線黃金交叉警示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>過去模擬操盤(假如說我現在固定一個最近的時間點，那我的系統要依股市自己去推斷，大約一個月還是一年的時間點裡面，我在甚麼時候融資/融券才是最賺的，並去調查股市上漲的原因，並要參照是否依類股變化)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以不用重跑就能夠有的股市資料庫(乾我真的要用python用資料庫用起來?!)，目前需求最好是抓近兩年就好，把股市資料全部抓玩喔開心呵呵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,7 +205,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -468,15 +492,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.25" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -485,7 +509,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -494,46 +518,65 @@
         <v>3</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="str">
-        <f>工作表2!A2&amp;" "&amp;工作表2!F2</f>
-        <v>Week1 04/03~04/09</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -542,12 +585,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3A34B9-05DC-4191-9995-78C28D92DB6C}">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f>工作表2!A2&amp;" "&amp;工作表2!F2</f>
+        <v>Week1 04/03~04/09</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D79087-AA3C-40E3-B807-0F6F4C40F47A}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
